--- a/clades/mammalia/data/mammal_chroms_update.xlsx
+++ b/clades/mammalia/data/mammal_chroms_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/pfsa/clades/mammalia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30859501-FF40-5A4A-B776-27A15BA21753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61670708-69A7-D041-8449-8CE496B60499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="4460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mammal_chroms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="2488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10238" uniqueCount="2489">
   <si>
     <t>Order</t>
   </si>
@@ -7484,6 +7484,9 @@
   </si>
   <si>
     <t>Chrom rearrangements</t>
+  </si>
+  <si>
+    <t>Lima and Seuanez 1989</t>
   </si>
 </sst>
 </file>
@@ -8371,8 +8374,8 @@
   <dimension ref="A1:Y1473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D297" sqref="D297"/>
+      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C693" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32949,98 +32952,70 @@
       </c>
     </row>
     <row r="832" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="3" t="s">
+      <c r="A832" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B832" s="3" t="s">
+      <c r="B832" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C832" s="3" t="s">
+      <c r="C832" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D832" s="3" t="s">
+      <c r="D832" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E832" s="3">
+      <c r="E832" s="4">
         <v>50</v>
       </c>
-      <c r="F832" s="3">
+      <c r="F832" s="4">
         <v>49</v>
       </c>
-      <c r="G832" s="3"/>
-      <c r="H832" s="3" t="s">
+      <c r="H832" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I832" s="3" t="s">
+      <c r="I832" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J832" s="3" t="s">
+      <c r="J832" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K832" s="3"/>
-      <c r="L832" s="3"/>
-      <c r="M832" s="3"/>
-      <c r="N832" s="3"/>
-      <c r="O832" s="3"/>
-      <c r="P832" s="3"/>
-      <c r="Q832" s="3"/>
-      <c r="R832" s="3"/>
-      <c r="S832" s="3"/>
-      <c r="T832" s="3"/>
-      <c r="U832" s="3"/>
-      <c r="V832" s="3"/>
-      <c r="W832" s="3"/>
-      <c r="X832" s="3"/>
-      <c r="Y832" s="3"/>
-    </row>
-    <row r="833" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A833" s="3" t="s">
+      <c r="K832" s="4" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A833" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B833" s="3" t="s">
+      <c r="B833" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C833" s="3" t="s">
+      <c r="C833" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D833" s="3" t="s">
+      <c r="D833" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E833" s="3">
+      <c r="E833" s="4">
         <v>50</v>
       </c>
-      <c r="F833" s="3">
+      <c r="F833" s="4">
         <v>49</v>
       </c>
-      <c r="G833" s="3"/>
-      <c r="H833" s="3" t="s">
+      <c r="H833" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="I833" s="3" t="s">
+      <c r="I833" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="J833" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K833" s="3" t="s">
+      <c r="J833" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K833" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="L833" s="3"/>
-      <c r="M833" s="3"/>
-      <c r="N833" s="3"/>
-      <c r="O833" s="3"/>
-      <c r="P833" s="3"/>
-      <c r="Q833" s="3"/>
-      <c r="R833" s="3"/>
-      <c r="S833" s="3"/>
-      <c r="T833" s="3"/>
-      <c r="U833" s="3"/>
-      <c r="V833" s="3"/>
-      <c r="W833" s="3"/>
-      <c r="X833" s="3"/>
-      <c r="Y833" s="3"/>
-    </row>
-    <row r="834" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="834" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A834" s="4" t="s">
         <v>562</v>
       </c>
@@ -33069,7 +33044,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="835" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A835" s="4" t="s">
         <v>562</v>
       </c>
@@ -33098,7 +33073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="836" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A836" s="4" t="s">
         <v>562</v>
       </c>
@@ -33127,7 +33102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="837" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A837" s="4" t="s">
         <v>562</v>
       </c>
@@ -33159,7 +33134,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="838" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A838" s="4" t="s">
         <v>562</v>
       </c>
@@ -33191,7 +33166,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="839" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A839" s="4" t="s">
         <v>562</v>
       </c>
@@ -33220,7 +33195,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="840" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A840" s="4" t="s">
         <v>562</v>
       </c>
@@ -33249,7 +33224,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="841" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A841" s="4" t="s">
         <v>562</v>
       </c>
@@ -33275,7 +33250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="842" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A842" s="4" t="s">
         <v>562</v>
       </c>
@@ -33307,7 +33282,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="843" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A843" s="4" t="s">
         <v>562</v>
       </c>
@@ -33339,7 +33314,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="844" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A844" s="4" t="s">
         <v>562</v>
       </c>
@@ -33371,7 +33346,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="845" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A845" s="4" t="s">
         <v>562</v>
       </c>
@@ -33403,7 +33378,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="846" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A846" s="4" t="s">
         <v>562</v>
       </c>
@@ -33435,7 +33410,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="847" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A847" s="4" t="s">
         <v>562</v>
       </c>
@@ -33467,7 +33442,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="848" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A848" s="4" t="s">
         <v>562</v>
       </c>

--- a/clades/mammalia/data/mammal_chroms_update.xlsx
+++ b/clades/mammalia/data/mammal_chroms_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/pfsa/clades/mammalia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC8D6CD-FDCD-F548-A040-8F34668EAD20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9FBBCD-D16A-4C48-8790-353BC4900950}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mammal_chroms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10007" uniqueCount="2485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10011" uniqueCount="2488">
   <si>
     <t>Order</t>
   </si>
@@ -7476,6 +7476,15 @@
   </si>
   <si>
     <t xml:space="preserve">araneus </t>
+  </si>
+  <si>
+    <t>Gileva 1984</t>
+  </si>
+  <si>
+    <t>Wurster 1972</t>
+  </si>
+  <si>
+    <t>Gallgher and Wommack 1992</t>
   </si>
 </sst>
 </file>
@@ -8369,8 +8378,8 @@
   <dimension ref="A1:Y1438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A439" sqref="A439:XFD439"/>
+      <pane ySplit="1" topLeftCell="A859" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A207" sqref="A207:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11179,7 +11188,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11208,7 +11217,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11237,7 +11246,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11266,7 +11275,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11295,7 +11304,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="101" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11324,7 +11333,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11353,7 +11362,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="103" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11382,7 +11391,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11408,7 +11417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11437,7 +11446,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="106" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>1590</v>
       </c>
@@ -11466,95 +11475,65 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="107" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>56</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>56</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="H107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
-      <c r="W107" s="3"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    </row>
+    <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <v>55</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <v>55</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3" t="s">
+      <c r="H108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-    </row>
-    <row r="109" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K108" s="2" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>1590</v>
       </c>
@@ -11583,7 +11562,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="110" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>1590</v>
       </c>
@@ -11612,7 +11591,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="111" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>1590</v>
       </c>
@@ -11641,7 +11620,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="112" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>1590</v>
       </c>
@@ -12128,7 +12107,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="129" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>1590</v>
       </c>
@@ -12157,7 +12136,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>1590</v>
       </c>
@@ -12186,7 +12165,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="131" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>1590</v>
       </c>
@@ -12215,7 +12194,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="132" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>1590</v>
       </c>
@@ -12247,7 +12226,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="133" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>1590</v>
       </c>
@@ -12273,97 +12252,68 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="3" t="s">
+      <c r="H134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>2326</v>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="K134" s="5" t="s">
+      <c r="J134" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>2256</v>
       </c>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-      <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    </row>
+    <row r="135" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="2">
         <v>52</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="2">
         <v>52</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3" t="s">
+      <c r="H135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K135" s="2" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12395,7 +12345,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="137" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12427,7 +12377,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="138" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12456,7 +12406,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="139" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12488,7 +12438,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="140" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12520,7 +12470,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="141" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12549,7 +12499,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="142" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12578,7 +12528,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1590</v>
       </c>
@@ -12607,7 +12557,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="144" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14043,7 +13993,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="193" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14072,7 +14022,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="194" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14098,7 +14048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14127,7 +14077,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="196" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14153,7 +14103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14182,7 +14132,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="198" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14211,7 +14161,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="199" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14240,7 +14190,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="200" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14269,7 +14219,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="201" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14298,7 +14248,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="202" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14327,7 +14277,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="203" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14356,7 +14306,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="204" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14385,7 +14335,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="205" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14414,7 +14364,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="206" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1590</v>
       </c>
@@ -14443,95 +14393,63 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="207" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="207" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F207" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="H207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K207" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="3"/>
-      <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
-      <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
-      <c r="U207" s="3"/>
-      <c r="V207" s="3"/>
-      <c r="W207" s="3"/>
-      <c r="X207" s="3"/>
-      <c r="Y207" s="3"/>
-    </row>
-    <row r="208" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
+    </row>
+    <row r="208" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="2">
         <v>45</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F208" s="2">
         <v>45</v>
       </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3" t="s">
+      <c r="H208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J208" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K208" s="3" t="s">
+      <c r="K208" s="2" t="s">
         <v>2246</v>
       </c>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
-      <c r="P208" s="3"/>
-      <c r="Q208" s="3"/>
-      <c r="R208" s="3"/>
-      <c r="S208" s="3"/>
-      <c r="T208" s="3"/>
-      <c r="U208" s="3"/>
-      <c r="V208" s="3"/>
-      <c r="W208" s="3"/>
-      <c r="X208" s="3"/>
-      <c r="Y208" s="3"/>
     </row>
     <row r="209" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
@@ -15458,7 +15376,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="241" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>23</v>
       </c>
@@ -15487,7 +15405,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="242" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>23</v>
       </c>
@@ -15516,7 +15434,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="243" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>23</v>
       </c>
@@ -15545,7 +15463,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="244" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>23</v>
       </c>
@@ -15574,7 +15492,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="245" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>23</v>
       </c>
@@ -15603,7 +15521,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="246" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>23</v>
       </c>
@@ -15632,7 +15550,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="247" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>23</v>
       </c>
@@ -15658,7 +15576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>23</v>
       </c>
@@ -15684,7 +15602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>23</v>
       </c>
@@ -15716,7 +15634,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="250" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>23</v>
       </c>
@@ -15748,7 +15666,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="251" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>23</v>
       </c>
@@ -15777,7 +15695,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="252" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>23</v>
       </c>
@@ -15806,7 +15724,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="253" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>23</v>
       </c>
@@ -15835,97 +15753,68 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="254" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+    <row r="254" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="2">
         <v>36</v>
       </c>
-      <c r="F254" s="3">
+      <c r="F254" s="2">
         <v>36</v>
       </c>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3" t="s">
+      <c r="H254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J254" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3"/>
-      <c r="Q254" s="3"/>
-      <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
-      <c r="U254" s="3"/>
-      <c r="V254" s="3"/>
-      <c r="W254" s="3"/>
-      <c r="X254" s="3"/>
-      <c r="Y254" s="3"/>
-    </row>
-    <row r="255" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+      <c r="K254" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="2">
         <v>34</v>
       </c>
-      <c r="F255" s="3">
+      <c r="F255" s="2">
         <v>34</v>
       </c>
-      <c r="G255" s="3" t="s">
+      <c r="G255" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="H255" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="K255" s="3" t="s">
+      <c r="H255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K255" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="3"/>
-      <c r="P255" s="3"/>
-      <c r="Q255" s="3"/>
-      <c r="R255" s="3"/>
-      <c r="S255" s="3"/>
-      <c r="T255" s="3"/>
-      <c r="U255" s="3"/>
-      <c r="V255" s="3"/>
-      <c r="W255" s="3"/>
-      <c r="X255" s="3"/>
-      <c r="Y255" s="3"/>
-    </row>
-    <row r="256" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>23</v>
       </c>
@@ -34119,7 +34008,7 @@
       <c r="J883" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K883" s="3"/>
+      <c r="K883" s="2"/>
       <c r="L883" s="3"/>
       <c r="M883" s="3"/>
       <c r="N883" s="3"/>
@@ -38164,7 +38053,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="1025" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="8" t="s">
         <v>671</v>
       </c>
@@ -38193,7 +38082,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="1026" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="8" t="s">
         <v>671</v>
       </c>
@@ -38222,7 +38111,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="1027" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="8" t="s">
         <v>671</v>
       </c>
@@ -38251,7 +38140,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="1028" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="8" t="s">
         <v>671</v>
       </c>
@@ -38280,7 +38169,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="1029" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="8" t="s">
         <v>671</v>
       </c>
@@ -38309,7 +38198,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="1030" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="8" t="s">
         <v>671</v>
       </c>
@@ -38338,7 +38227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1031" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="10" t="s">
         <v>671</v>
       </c>
@@ -38367,97 +38256,68 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1032" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1032" s="3" t="s">
+    <row r="1032" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B1032" s="3" t="s">
+      <c r="B1032" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C1032" s="3" t="s">
+      <c r="C1032" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D1032" s="3" t="s">
+      <c r="D1032" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E1032" s="3">
+      <c r="E1032" s="2">
         <v>30</v>
       </c>
-      <c r="F1032" s="3">
+      <c r="F1032" s="2">
         <v>30</v>
       </c>
-      <c r="G1032" s="3"/>
-      <c r="H1032" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1032" s="3"/>
-      <c r="J1032" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="K1032" s="3" t="s">
+      <c r="H1032" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1032" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K1032" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="L1032" s="3"/>
-      <c r="M1032" s="3"/>
-      <c r="N1032" s="3"/>
-      <c r="O1032" s="3"/>
-      <c r="P1032" s="3"/>
-      <c r="Q1032" s="3"/>
-      <c r="R1032" s="3"/>
-      <c r="S1032" s="3"/>
-      <c r="T1032" s="3"/>
-      <c r="U1032" s="3"/>
-      <c r="V1032" s="3"/>
-      <c r="W1032" s="3"/>
-      <c r="X1032" s="3"/>
-      <c r="Y1032" s="3"/>
-    </row>
-    <row r="1033" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1033" s="3" t="s">
+    </row>
+    <row r="1033" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B1033" s="3" t="s">
+      <c r="B1033" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C1033" s="3" t="s">
+      <c r="C1033" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D1033" s="3" t="s">
+      <c r="D1033" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E1033" s="3">
+      <c r="E1033" s="2">
         <v>46</v>
       </c>
-      <c r="F1033" s="3">
+      <c r="F1033" s="2">
         <v>46</v>
       </c>
-      <c r="G1033" s="3"/>
-      <c r="H1033" s="3" t="s">
+      <c r="H1033" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I1033" s="3" t="s">
+      <c r="I1033" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="J1033" s="3" t="s">
+      <c r="J1033" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1033" s="3"/>
-      <c r="L1033" s="3"/>
-      <c r="M1033" s="3"/>
-      <c r="N1033" s="3"/>
-      <c r="O1033" s="3"/>
-      <c r="P1033" s="3"/>
-      <c r="Q1033" s="3"/>
-      <c r="R1033" s="3"/>
-      <c r="S1033" s="3"/>
-      <c r="T1033" s="3"/>
-      <c r="U1033" s="3"/>
-      <c r="V1033" s="3"/>
-      <c r="W1033" s="3"/>
-      <c r="X1033" s="3"/>
-      <c r="Y1033" s="3"/>
-    </row>
-    <row r="1034" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K1033" s="2" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="2" t="s">
         <v>671</v>
       </c>
@@ -38489,7 +38349,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="1035" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="2" t="s">
         <v>671</v>
       </c>
@@ -38518,7 +38378,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="1036" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="2" t="s">
         <v>671</v>
       </c>
@@ -38547,7 +38407,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="1037" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="2" t="s">
         <v>671</v>
       </c>
@@ -38579,7 +38439,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="1038" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="2" t="s">
         <v>671</v>
       </c>
@@ -38611,7 +38471,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="1039" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="2" t="s">
         <v>671</v>
       </c>
@@ -38640,7 +38500,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="1040" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="2" t="s">
         <v>671</v>
       </c>

--- a/clades/mammalia/data/mammal_chroms_update.xlsx
+++ b/clades/mammalia/data/mammal_chroms_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/pfsa/clades/mammalia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837CF66-0942-A249-83B9-DB8409A9A9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD3199-14C5-EA4F-B5FD-C79922BC5717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="7640" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mammal_chroms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9998" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9997" uniqueCount="2488">
   <si>
     <t>Order</t>
   </si>
@@ -7475,13 +7475,16 @@
     <t xml:space="preserve">araneus </t>
   </si>
   <si>
-    <t>Gileva 1984</t>
-  </si>
-  <si>
     <t>Wurster 1972</t>
   </si>
   <si>
     <t>Gallgher and Wommack 1992</t>
+  </si>
+  <si>
+    <t>hudsonius</t>
+  </si>
+  <si>
+    <t>Krohne 1982</t>
   </si>
 </sst>
 </file>
@@ -8354,8 +8357,8 @@
   <dimension ref="A1:Y1436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I237" sqref="I237"/>
+      <pane ySplit="1" topLeftCell="A1006" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1033" sqref="J1033"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11506,7 +11509,7 @@
         <v>27</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -12286,7 +12289,7 @@
         <v>27</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -38193,17 +38196,20 @@
       <c r="F1031" s="2">
         <v>46</v>
       </c>
+      <c r="G1031" s="2" t="s">
+        <v>1945</v>
+      </c>
       <c r="H1031" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I1031" s="2" t="s">
-        <v>724</v>
+        <v>2321</v>
       </c>
       <c r="J1031" s="2" t="s">
-        <v>27</v>
+        <v>1799</v>
       </c>
       <c r="K1031" s="2" t="s">
-        <v>2484</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1032" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -38217,25 +38223,22 @@
         <v>723</v>
       </c>
       <c r="D1032" s="2" t="s">
-        <v>569</v>
+        <v>2486</v>
+      </c>
+      <c r="E1032" s="2">
+        <v>48</v>
       </c>
       <c r="F1032" s="2">
-        <v>45</v>
-      </c>
-      <c r="G1032" s="2" t="s">
-        <v>1945</v>
+        <v>48</v>
       </c>
       <c r="H1032" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1032" s="2" t="s">
-        <v>2321</v>
+        <v>11</v>
       </c>
       <c r="J1032" s="2" t="s">
-        <v>1799</v>
+        <v>27</v>
       </c>
       <c r="K1032" s="2" t="s">
-        <v>1930</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1033" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/clades/mammalia/data/mammal_chroms_update.xlsx
+++ b/clades/mammalia/data/mammal_chroms_update.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/pfsa/clades/mammalia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD3199-14C5-EA4F-B5FD-C79922BC5717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDA437-6E8E-1048-8D0B-FAB58201E73F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="13420" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mammal_chroms" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9997" uniqueCount="2488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10025" uniqueCount="2488">
   <si>
     <t>Order</t>
   </si>
@@ -8357,8 +8357,8 @@
   <dimension ref="A1:Y1436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1006" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1033" sqref="J1033"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49706,4 +49706,162 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A56F3D-7865-6245-9497-F168B9A689ED}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/clades/mammalia/data/mammal_chroms_update.xlsx
+++ b/clades/mammalia/data/mammal_chroms_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/pfsa/clades/mammalia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDA437-6E8E-1048-8D0B-FAB58201E73F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C8CCB-FF10-D34E-BFCD-E2A0BF2A5946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="13420" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="25580" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mammal_chroms" sheetId="1" r:id="rId1"/>
@@ -8363,7 +8363,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -8372,7 +8372,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -8407,7 +8407,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8436,7 +8436,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -8465,7 +8465,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8494,7 +8494,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8523,7 +8523,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8552,7 +8552,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8581,7 +8581,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8607,7 +8607,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8633,7 +8633,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8691,7 +8691,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8720,7 +8720,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8749,7 +8749,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8778,7 +8778,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8807,7 +8807,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -8836,7 +8836,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8865,7 +8865,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -8894,7 +8894,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8923,7 +8923,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8952,7 +8952,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8981,7 +8981,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -9010,7 +9010,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -9039,7 +9039,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -9068,7 +9068,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -9097,7 +9097,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -9126,7 +9126,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9155,7 +9155,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -9184,7 +9184,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -9213,7 +9213,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
